--- a/biology/Mycologie/Inocybe/Inocybe.xlsx
+++ b/biology/Mycologie/Inocybe/Inocybe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Inocybe (en français, les inocybes) est un genre de champignons basidiomycètes de la famille des Inocybaceae dans l'ordre des Agaricales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Inocybe signifie « chapeau fibreux ». Il est tiré des mots grecs ἴς (au génitif ἴνος, signifiant « muscle, nerf, fibre, force, vigueur ») et κύβη (« tête »)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Inocybe signifie « chapeau fibreux ». Il est tiré des mots grecs ἴς (au génitif ἴνος, signifiant « muscle, nerf, fibre, force, vigueur ») et κύβη (« tête »).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Inocybe comporte des champignons typiques de diverses teintes de brun, bien que certaines espèces virent au lilas ou au violacé.[réf. nécessaire]
 Leurs chapeaux sont petits et coniques, s'aplatissent un peu avec l'âge, généralement avec un bouton marqué dans sa partie centrale.[réf. nécessaire]
@@ -576,11 +592,48 @@
           <t>Liste des Inocybes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Il existe près de 500 espèces du genre Inocybe, voici les principaux de l'hémisphère nord.[réf. nécessaire]
-Liste alphabétique
-Inocybe abietis (Kühner 1955)
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe près de 500 espèces du genre Inocybe, voici les principaux de l'hémisphère nord.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Inocybe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Inocybe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des Inocybes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste alphabétique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Inocybe abietis (Kühner 1955)
 Inocybe abjecta ((Karste) Saccardo 1887) Inocybe négligé
 Inocybe acuta (Boudier 1917) Inocybe aigu, Inocybe à mamelon pointu
 Inocybe acutella (Bon 1976)
@@ -735,7 +788,7 @@
 Inocybe sororia
 Inocybe splendens (Heim 1931) Inocybe splendide
 Inocybe splendentoides (M. Bon 1990)
-Inocybe squalida[2] (Kaufholtz 2022) Inocybe sali
+Inocybe squalida (Kaufholtz 2022) Inocybe sali
 Inocybe squamata (Lange 1917) Inocybe squameux
 Inocybe squarrosa (Rea 1915) Inocybe squarreux
 Inocybe subalbodisca (Strangl. &amp; Vesel. 1974)
@@ -762,9 +815,43 @@
 Inocybe vulpinella (Bruylants 1969) Inocybe des renards
 Inocybe xanthocephala (P. D. Orton 1960) Inocybe à chapeau jaune
 Inocybe xantholeuca (Kuyper 1986)
-Inocybe xanthomelaena (Kühner &amp; Boursier 1933) Inocybe jaune noircissant
-Noms français
-Inocybe de Patouillard, Inocybe patouillardii
+Inocybe xanthomelaena (Kühner &amp; Boursier 1933) Inocybe jaune noircissant</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Inocybe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Inocybe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des Inocybes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms français</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Inocybe de Patouillard, Inocybe patouillardii
 Inocybe maculé, Inocybe maculata
 Inocybe à lames couleur de terre, Inocybe geophylla
 Inocybe fastigié, Inocybe rimosa
